--- a/data/output/FV2404_FV2310/UTILMD/55138.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55138.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3149" uniqueCount="284">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="284">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -993,6 +993,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U189" totalsRowShown="0">
+  <autoFilter ref="A1:U189"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1282,7 +1312,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9084,5 +9117,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>